--- a/data/trans_orig/P33_1_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P33_1_R-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>591149</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>572616</v>
+        <v>571419</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>608605</v>
+        <v>605667</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8629394744087836</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8358853944517028</v>
+        <v>0.8341377222546502</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8884212467367749</v>
+        <v>0.8841320461070633</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>562</v>
@@ -765,19 +765,19 @@
         <v>555538</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>535201</v>
+        <v>533575</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>576395</v>
+        <v>573120</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8102709756112977</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7806091354224552</v>
+        <v>0.778237466944002</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8406911642632739</v>
+        <v>0.8359146072103119</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1142</v>
@@ -786,19 +786,19 @@
         <v>1146686</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1119984</v>
+        <v>1119481</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1172352</v>
+        <v>1173955</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8365941048064525</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8171130344583182</v>
+        <v>0.8167462531583056</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8553192638450166</v>
+        <v>0.8564887924733662</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>93892</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>76436</v>
+        <v>79374</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>112425</v>
+        <v>113622</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1370605255912164</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1115787532632251</v>
+        <v>0.1158679538929367</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1641146055482978</v>
+        <v>0.1658622777453498</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>131</v>
@@ -836,19 +836,19 @@
         <v>130082</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>109225</v>
+        <v>112500</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>150419</v>
+        <v>152045</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1897290243887023</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1593088357367256</v>
+        <v>0.1640853927896881</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2193908645775444</v>
+        <v>0.2217625330559971</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>225</v>
@@ -857,19 +857,19 @@
         <v>223974</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>198308</v>
+        <v>196705</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>250676</v>
+        <v>251179</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1634058951935476</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1446807361549836</v>
+        <v>0.1435112075266337</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1828869655416818</v>
+        <v>0.183253746841694</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>752278</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>727889</v>
+        <v>724213</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>775676</v>
+        <v>778212</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7922572906055747</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7665725623770626</v>
+        <v>0.7627014339072444</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8168995966122277</v>
+        <v>0.8195703585509587</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>686</v>
@@ -982,19 +982,19 @@
         <v>730080</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>702032</v>
+        <v>703926</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>757590</v>
+        <v>757017</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.758699209070711</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7295523647737595</v>
+        <v>0.7315207889627096</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7872878532086093</v>
+        <v>0.7866928173260646</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1390</v>
@@ -1003,19 +1003,19 @@
         <v>1482357</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1442904</v>
+        <v>1444295</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1515393</v>
+        <v>1517982</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7753664253125497</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7547297706124177</v>
+        <v>0.7554577225103416</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7926461995292776</v>
+        <v>0.7940002666779385</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>197259</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>173861</v>
+        <v>171325</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>221648</v>
+        <v>225324</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2077427093944253</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1831004033877723</v>
+        <v>0.1804296414490416</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2334274376229375</v>
+        <v>0.2372985660927557</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>216</v>
@@ -1053,19 +1053,19 @@
         <v>232198</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>204688</v>
+        <v>205261</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>260246</v>
+        <v>258352</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.241300790929289</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2127121467913907</v>
+        <v>0.2133071826739356</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2704476352262404</v>
+        <v>0.2684792110372907</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>396</v>
@@ -1074,19 +1074,19 @@
         <v>429458</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>396422</v>
+        <v>393833</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>468911</v>
+        <v>467520</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2246335746874503</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2073538004707224</v>
+        <v>0.2059997333220616</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2452702293875823</v>
+        <v>0.2445422774896585</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>536364</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>515108</v>
+        <v>513638</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>557439</v>
+        <v>557454</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7998009389450141</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7681046323636548</v>
+        <v>0.7659134338245215</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8312271295881655</v>
+        <v>0.8312496352997991</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>485</v>
@@ -1199,19 +1199,19 @@
         <v>473008</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>447472</v>
+        <v>450696</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>493552</v>
+        <v>495179</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6981357272359503</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6604461548620729</v>
+        <v>0.6652051436776848</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7284581853526598</v>
+        <v>0.7308592293457224</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>989</v>
@@ -1220,19 +1220,19 @@
         <v>1009372</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>978504</v>
+        <v>975381</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1039716</v>
+        <v>1040156</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7487078429722039</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7258114928208609</v>
+        <v>0.7234946580977368</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7712157358152677</v>
+        <v>0.7715419049442342</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>134258</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>113183</v>
+        <v>113168</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>155514</v>
+        <v>156984</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2001990610549859</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1687728704118346</v>
+        <v>0.1687503647002009</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2318953676363452</v>
+        <v>0.2340865661754785</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>205</v>
@@ -1270,19 +1270,19 @@
         <v>204522</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>183978</v>
+        <v>182351</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>230058</v>
+        <v>226834</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3018642727640498</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2715418146473401</v>
+        <v>0.2691407706542776</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3395538451379269</v>
+        <v>0.3347948563223153</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>333</v>
@@ -1291,19 +1291,19 @@
         <v>338780</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>308436</v>
+        <v>307996</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>369648</v>
+        <v>372771</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.251292157027796</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2287842641847323</v>
+        <v>0.2284580950557659</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.274188507179139</v>
+        <v>0.2765053419022632</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>751436</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>726950</v>
+        <v>728848</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>772272</v>
+        <v>774033</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.8128857294311297</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7863970703300033</v>
+        <v>0.788450241524423</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8354253844333172</v>
+        <v>0.8373301718330129</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>763</v>
@@ -1416,19 +1416,19 @@
         <v>791513</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>764116</v>
+        <v>762053</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>818543</v>
+        <v>818642</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.7671854849572085</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.7406304269145332</v>
+        <v>0.7386313579776328</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7933848489765118</v>
+        <v>0.7934806650852961</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1555</v>
@@ -1437,19 +1437,19 @@
         <v>1542949</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1506749</v>
+        <v>1505073</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1576108</v>
+        <v>1574986</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.7887821472967496</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7702760498961468</v>
+        <v>0.7694188704198803</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.8057332802802734</v>
+        <v>0.8051598911133753</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>172970</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>152134</v>
+        <v>150373</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>197456</v>
+        <v>195558</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1871142705688704</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.164574615566683</v>
+        <v>0.1626698281669868</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.213602929669997</v>
+        <v>0.211549758475577</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>227</v>
@@ -1487,19 +1487,19 @@
         <v>240197</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>213167</v>
+        <v>213068</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>267594</v>
+        <v>269657</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2328145150427915</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2066151510234882</v>
+        <v>0.2065193349147039</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.259369573085467</v>
+        <v>0.2613686420223673</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>411</v>
@@ -1508,19 +1508,19 @@
         <v>413167</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>380008</v>
+        <v>381130</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>449367</v>
+        <v>451043</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2112178527032504</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1942667197197266</v>
+        <v>0.1948401088866247</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2297239501038531</v>
+        <v>0.2305811295801196</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>2631226</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2587365</v>
+        <v>2581920</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2675627</v>
+        <v>2673141</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8147207690638889</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8011396818480018</v>
+        <v>0.799453884210597</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8284687145329995</v>
+        <v>0.8276989329790363</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2496</v>
@@ -1633,19 +1633,19 @@
         <v>2550138</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2499789</v>
+        <v>2497780</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2602981</v>
+        <v>2598806</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7596167765213312</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7446189737634016</v>
+        <v>0.7440205837484555</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7753572459064338</v>
+        <v>0.7741134779838093</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5076</v>
@@ -1654,19 +1654,19 @@
         <v>5181365</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5112532</v>
+        <v>5114438</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>5249869</v>
+        <v>5248896</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7866353095576866</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7761851318276137</v>
+        <v>0.7764745662851082</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7970356449495428</v>
+        <v>0.7968879142685767</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>598379</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>553978</v>
+        <v>556464</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>642240</v>
+        <v>647685</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1852792309361111</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1715312854670004</v>
+        <v>0.1723010670209636</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1988603181519982</v>
+        <v>0.200546115789403</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>779</v>
@@ -1704,19 +1704,19 @@
         <v>807000</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>754157</v>
+        <v>758332</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>857349</v>
+        <v>859358</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2403832234786688</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2246427540935662</v>
+        <v>0.2258865220161908</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2553810262365986</v>
+        <v>0.2559794162515445</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1365</v>
@@ -1725,19 +1725,19 @@
         <v>1405378</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1336874</v>
+        <v>1337847</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1474211</v>
+        <v>1472305</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2133646904423134</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2029643550504572</v>
+        <v>0.2031120857314236</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2238148681723865</v>
+        <v>0.2235254337148921</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>507311</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>483366</v>
+        <v>481265</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>530947</v>
+        <v>530950</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7222536498954054</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6881630317218865</v>
+        <v>0.6851716245992521</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7559034547248796</v>
+        <v>0.7559084630388545</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>434</v>
@@ -2090,19 +2090,19 @@
         <v>465125</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>435543</v>
+        <v>438874</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>488767</v>
+        <v>489437</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6684008882263237</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6258892550520222</v>
+        <v>0.63067717612221</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7023747800221437</v>
+        <v>0.7033374470850895</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>920</v>
@@ -2111,19 +2111,19 @@
         <v>972436</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>936338</v>
+        <v>937938</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1004405</v>
+        <v>1009303</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6954528791386035</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6696364131779863</v>
+        <v>0.6707807741468846</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7183156869136968</v>
+        <v>0.7218183039867092</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>195089</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>171453</v>
+        <v>171450</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>219034</v>
+        <v>221135</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2777463501045945</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2440965452751203</v>
+        <v>0.2440915369611451</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3118369682781134</v>
+        <v>0.3148283754007477</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>215</v>
@@ -2161,19 +2161,19 @@
         <v>230753</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>207111</v>
+        <v>206441</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>260335</v>
+        <v>257004</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3315991117736763</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2976252199778563</v>
+        <v>0.2966625529149105</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3741107449479779</v>
+        <v>0.36932282387779</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>402</v>
@@ -2182,19 +2182,19 @@
         <v>425842</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>393873</v>
+        <v>388975</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>461940</v>
+        <v>460340</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3045471208613965</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.281684313086303</v>
+        <v>0.2781816960132908</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3303635868220136</v>
+        <v>0.3292192258531154</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>749391</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>718647</v>
+        <v>719495</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>776620</v>
+        <v>780118</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.737616544013405</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7073559478051751</v>
+        <v>0.708189691557023</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7644179448722607</v>
+        <v>0.7678604036337164</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>618</v>
@@ -2307,19 +2307,19 @@
         <v>679517</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>649632</v>
+        <v>651328</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>710853</v>
+        <v>711369</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.6590090677230602</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6300255956291986</v>
+        <v>0.6316708995373668</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6893988765808197</v>
+        <v>0.6898990417871003</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1309</v>
@@ -2328,19 +2328,19 @@
         <v>1428909</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1384566</v>
+        <v>1386569</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1470377</v>
+        <v>1468829</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.698021809647159</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6763603364969011</v>
+        <v>0.677339154629359</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7182791540992189</v>
+        <v>0.7175228582784721</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>266572</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>239343</v>
+        <v>235845</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>297316</v>
+        <v>296468</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.262383455986595</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2355820551277398</v>
+        <v>0.2321395963662836</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2926440521948249</v>
+        <v>0.2918103084429769</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>321</v>
@@ -2378,19 +2378,19 @@
         <v>351603</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>320267</v>
+        <v>319751</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>381488</v>
+        <v>379792</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3409909322769398</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3106011234191803</v>
+        <v>0.3101009582128998</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3699744043708015</v>
+        <v>0.368329100462634</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>564</v>
@@ -2399,19 +2399,19 @@
         <v>618174</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>576706</v>
+        <v>578254</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>662517</v>
+        <v>660514</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.301978190352841</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.281720845900781</v>
+        <v>0.282477141721528</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3236396635030989</v>
+        <v>0.322660845370641</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>585764</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>562043</v>
+        <v>560701</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>610339</v>
+        <v>607894</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7752112429376198</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7438185026214944</v>
+        <v>0.7420425488067233</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.807735358157209</v>
+        <v>0.8044989269508248</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>497</v>
@@ -2524,19 +2524,19 @@
         <v>547774</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>517880</v>
+        <v>521388</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>572768</v>
+        <v>575248</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7057199597527983</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.667206437643056</v>
+        <v>0.6717250664291053</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7379199249103304</v>
+        <v>0.7411157310261023</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1030</v>
@@ -2545,19 +2545,19 @@
         <v>1133538</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1097409</v>
+        <v>1098030</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1170368</v>
+        <v>1167681</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7399989146163568</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7164130647361758</v>
+        <v>0.7168185137149046</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7640427299878221</v>
+        <v>0.7622885424714937</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>169854</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>145279</v>
+        <v>147724</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>193575</v>
+        <v>194917</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2247887570623802</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.192264641842791</v>
+        <v>0.1955010730491753</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2561814973785052</v>
+        <v>0.2579574511932768</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>207</v>
@@ -2595,19 +2595,19 @@
         <v>228418</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>203424</v>
+        <v>200944</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>258312</v>
+        <v>254804</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2942800402472017</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2620800750896696</v>
+        <v>0.2588842689738978</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3327935623569441</v>
+        <v>0.3282749335708948</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>361</v>
@@ -2616,19 +2616,19 @@
         <v>398272</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>361442</v>
+        <v>364129</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>434401</v>
+        <v>433780</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2600010853836432</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2359572700121784</v>
+        <v>0.2377114575285063</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2835869352638248</v>
+        <v>0.2831814862850955</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>686575</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>659834</v>
+        <v>657532</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>717216</v>
+        <v>714103</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.7307270085313206</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7022660379400572</v>
+        <v>0.6998165776323234</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.763338850529532</v>
+        <v>0.7600254145060478</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>670</v>
@@ -2741,19 +2741,19 @@
         <v>702780</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>672667</v>
+        <v>667533</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>732669</v>
+        <v>730600</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6720226807605758</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6432276833035377</v>
+        <v>0.6383185201260166</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7006037917077438</v>
+        <v>0.6986255854986879</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1332</v>
@@ -2762,19 +2762,19 @@
         <v>1389355</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1346778</v>
+        <v>1347765</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1431912</v>
+        <v>1430848</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6998048850171021</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6783593406687445</v>
+        <v>0.6788564858910909</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7212406154630143</v>
+        <v>0.720704465004238</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>253003</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>222362</v>
+        <v>225475</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>279744</v>
+        <v>282046</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2692729914686795</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.236661149470468</v>
+        <v>0.2399745854939523</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2977339620599428</v>
+        <v>0.3001834223676766</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>327</v>
@@ -2812,19 +2812,19 @@
         <v>342988</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>313099</v>
+        <v>315168</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>373101</v>
+        <v>378235</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3279773192394242</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2993962082922561</v>
+        <v>0.301374414501313</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3567723166964621</v>
+        <v>0.3616814798739841</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>568</v>
@@ -2833,19 +2833,19 @@
         <v>595991</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>553434</v>
+        <v>554498</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>638568</v>
+        <v>637581</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3001951149828979</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2787593845369856</v>
+        <v>0.279295534995762</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3216406593312556</v>
+        <v>0.3211435141089092</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>2529041</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2475877</v>
+        <v>2474207</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2578242</v>
+        <v>2577738</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.740880895170011</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7253063186853949</v>
+        <v>0.7248170623165755</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7552941103751369</v>
+        <v>0.7551464841603794</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2219</v>
@@ -2958,19 +2958,19 @@
         <v>2395197</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2333279</v>
+        <v>2337380</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2447361</v>
+        <v>2450113</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6749014550050187</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6574545668663216</v>
+        <v>0.6586101528081197</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6895998111834301</v>
+        <v>0.690375347867863</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4591</v>
@@ -2979,19 +2979,19 @@
         <v>4924238</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4845680</v>
+        <v>4839955</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>5004106</v>
+        <v>4997089</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7072496336131888</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.695966675942261</v>
+        <v>0.6951444627719594</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7187208629726092</v>
+        <v>0.7177129790347291</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>884519</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>835318</v>
+        <v>835822</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>937683</v>
+        <v>939353</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.259119104829989</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2447058896248633</v>
+        <v>0.2448535158396208</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2746936813146051</v>
+        <v>0.2751829376834246</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1070</v>
@@ -3029,19 +3029,19 @@
         <v>1153761</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1101597</v>
+        <v>1098845</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1215679</v>
+        <v>1211578</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3250985449949812</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3104001888165699</v>
+        <v>0.309624652132137</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3425454331336784</v>
+        <v>0.3413898471918803</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1895</v>
@@ -3050,19 +3050,19 @@
         <v>2038279</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1958411</v>
+        <v>1965428</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2116837</v>
+        <v>2122562</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2927503663868112</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2812791370273909</v>
+        <v>0.2822870209652711</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3040333240577391</v>
+        <v>0.3048555372280405</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>528997</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>507829</v>
+        <v>508928</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>551985</v>
+        <v>551293</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7880401805442508</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7565065277655237</v>
+        <v>0.7581426515227904</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8222845756994828</v>
+        <v>0.8212532384666797</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>461</v>
@@ -3415,19 +3415,19 @@
         <v>458764</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>431384</v>
+        <v>435522</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>481679</v>
+        <v>482799</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6904382931029496</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6492310413534081</v>
+        <v>0.6554577558705269</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7249238492907429</v>
+        <v>0.7266101942817976</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>976</v>
@@ -3436,19 +3436,19 @@
         <v>987762</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>953786</v>
+        <v>955323</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1019599</v>
+        <v>1022625</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7394887201958641</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7140527271207354</v>
+        <v>0.7152036549360676</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7633239993407187</v>
+        <v>0.7655888286728244</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>142285</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>119297</v>
+        <v>119989</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>163453</v>
+        <v>162354</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2119598194557492</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1777154243005175</v>
+        <v>0.1787467615333204</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2434934722344763</v>
+        <v>0.2418573484772097</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>197</v>
@@ -3486,19 +3486,19 @@
         <v>205690</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>182775</v>
+        <v>181655</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>233070</v>
+        <v>228932</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3095617068970504</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2750761507092571</v>
+        <v>0.2733898057182024</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3507689586465915</v>
+        <v>0.3445422441294731</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>331</v>
@@ -3507,19 +3507,19 @@
         <v>347974</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>316137</v>
+        <v>313111</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>381950</v>
+        <v>380413</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.260511279804136</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2366760006592813</v>
+        <v>0.2344111713271756</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2859472728792645</v>
+        <v>0.2847963450639324</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>821699</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>791903</v>
+        <v>794531</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>848604</v>
+        <v>847562</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8062333985063697</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7769981816907841</v>
+        <v>0.7795761823612888</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8326317105751407</v>
+        <v>0.8316094845894042</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>719</v>
@@ -3632,19 +3632,19 @@
         <v>756788</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>724804</v>
+        <v>725092</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>785145</v>
+        <v>787089</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7271131117155204</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6963835738655818</v>
+        <v>0.6966595146534736</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7543580102672002</v>
+        <v>0.7562256849552356</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1482</v>
@@ -3653,19 +3653,19 @@
         <v>1578487</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1536020</v>
+        <v>1543547</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1616416</v>
+        <v>1620808</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7662578895277183</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7456427838350576</v>
+        <v>0.749296920030588</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7846701777937182</v>
+        <v>0.7868025145725146</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>197484</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>170579</v>
+        <v>171621</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>227280</v>
+        <v>224652</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1937666014936304</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1673682894248593</v>
+        <v>0.1683905154105961</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2230018183092159</v>
+        <v>0.2204238176387112</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>257</v>
@@ -3703,19 +3703,19 @@
         <v>284024</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>255667</v>
+        <v>253723</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>316008</v>
+        <v>315720</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2728868882844795</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2456419897327998</v>
+        <v>0.2437743150447643</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3036164261344181</v>
+        <v>0.3033404853465264</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>442</v>
@@ -3724,19 +3724,19 @@
         <v>481507</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>443578</v>
+        <v>439186</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>523974</v>
+        <v>516447</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2337421104722817</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.215329822206282</v>
+        <v>0.2131974854274855</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2543572161649426</v>
+        <v>0.2507030799694122</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>560801</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>535114</v>
+        <v>533816</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>585793</v>
+        <v>583839</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7383312515252107</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7045128926877554</v>
+        <v>0.7028042793101972</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7712350416332446</v>
+        <v>0.7686621309540292</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>518</v>
@@ -3849,19 +3849,19 @@
         <v>542552</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>517567</v>
+        <v>513796</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>571951</v>
+        <v>569147</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6919748738736444</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6601094814796807</v>
+        <v>0.6552993463519008</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7294702142600286</v>
+        <v>0.7258943910984664</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1028</v>
@@ -3870,19 +3870,19 @@
         <v>1103354</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1064987</v>
+        <v>1066697</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1139408</v>
+        <v>1137937</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7147850179160141</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6899299507867754</v>
+        <v>0.6910379711137012</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7381423330637908</v>
+        <v>0.7371891317333368</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>198751</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>173759</v>
+        <v>175713</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>224438</v>
+        <v>225736</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2616687484747893</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2287649583667553</v>
+        <v>0.2313378690459708</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2954871073122445</v>
+        <v>0.2971957206898032</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>217</v>
@@ -3920,19 +3920,19 @@
         <v>241511</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>212112</v>
+        <v>214916</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>266496</v>
+        <v>270267</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3080251261263556</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2705297857399713</v>
+        <v>0.2741056089015335</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3398905185203192</v>
+        <v>0.3447006536480992</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>403</v>
@@ -3941,19 +3941,19 @@
         <v>440262</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>404208</v>
+        <v>405679</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>478629</v>
+        <v>476919</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2852149820839859</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.261857666936209</v>
+        <v>0.2628108682666632</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3100700492132245</v>
+        <v>0.3089620288862988</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>689465</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>660119</v>
+        <v>661134</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>716504</v>
+        <v>716309</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.7353769546295428</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7040764013966709</v>
+        <v>0.7051590485901632</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7642166774840468</v>
+        <v>0.7640081534946658</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>710</v>
@@ -4066,19 +4066,19 @@
         <v>764994</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>730907</v>
+        <v>735346</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>791032</v>
+        <v>792625</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.7350946923292955</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.7023400037011289</v>
+        <v>0.7066058034474603</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7601152565336156</v>
+        <v>0.7616461262487113</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1400</v>
@@ -4087,19 +4087,19 @@
         <v>1454459</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1411628</v>
+        <v>1413065</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1491159</v>
+        <v>1496646</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.7352284676589554</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7135773705308751</v>
+        <v>0.7143036765387947</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7537803085922896</v>
+        <v>0.7565540064922687</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>248102</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>221063</v>
+        <v>221258</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>277448</v>
+        <v>276433</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2646230453704573</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2357833225159532</v>
+        <v>0.2359918465053343</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.295923598603329</v>
+        <v>0.2948409514098369</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>246</v>
@@ -4137,19 +4137,19 @@
         <v>275680</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>249642</v>
+        <v>248049</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>309767</v>
+        <v>305328</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2649053076707045</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2398847434663844</v>
+        <v>0.2383538737512887</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2976599962988711</v>
+        <v>0.2933941965525397</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>488</v>
@@ -4158,19 +4158,19 @@
         <v>523782</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>487082</v>
+        <v>481595</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>566613</v>
+        <v>565176</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2647715323410446</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2462196914077104</v>
+        <v>0.2434459935077314</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2864226294691248</v>
+        <v>0.2856963234612052</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>2600963</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2548476</v>
+        <v>2547476</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2647087</v>
+        <v>2651654</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7677928238981824</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7522989248894272</v>
+        <v>0.7520037011144863</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.781408392546881</v>
+        <v>0.7827566438392146</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2408</v>
@@ -4283,19 +4283,19 @@
         <v>2523098</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2470403</v>
+        <v>2466433</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2578865</v>
+        <v>2578048</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7147581359444263</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6998305208829499</v>
+        <v>0.6987059277760403</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7305561532948609</v>
+        <v>0.7303248284457015</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4886</v>
@@ -4304,19 +4304,19 @@
         <v>5124061</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5053588</v>
+        <v>5048930</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>5198463</v>
+        <v>5197164</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.740729544728754</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.730542085927929</v>
+        <v>0.7298686662986493</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7514850174507148</v>
+        <v>0.7512972403761872</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>786621</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>740497</v>
+        <v>735930</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>839108</v>
+        <v>840108</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2322071761018176</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2185916074531188</v>
+        <v>0.2172433561607853</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2477010751105728</v>
+        <v>0.2479962988855136</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>917</v>
@@ -4354,19 +4354,19 @@
         <v>1006904</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>951137</v>
+        <v>951954</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1059599</v>
+        <v>1063569</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2852418640555737</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2694438467051394</v>
+        <v>0.2696751715542989</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3001694791170503</v>
+        <v>0.3012940722239597</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1664</v>
@@ -4375,19 +4375,19 @@
         <v>1793526</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1719124</v>
+        <v>1720423</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1863999</v>
+        <v>1868657</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.259270455271246</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2485149825492851</v>
+        <v>0.2487027596238129</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.269457914072071</v>
+        <v>0.270131333701351</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>524808</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>501449</v>
+        <v>498074</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>547911</v>
+        <v>544788</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.775957975514498</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7414197544856554</v>
+        <v>0.7364298326128614</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8101163128933767</v>
+        <v>0.8054995520265301</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>760</v>
@@ -4740,19 +4740,19 @@
         <v>480474</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>459507</v>
+        <v>461000</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>498778</v>
+        <v>502367</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.6739885487285721</v>
+        <v>0.6739885487285719</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6445762972692755</v>
+        <v>0.6466708980290707</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6996637257272811</v>
+        <v>0.7046992278465677</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1299</v>
@@ -4761,19 +4761,19 @@
         <v>1005283</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>972886</v>
+        <v>975184</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1032206</v>
+        <v>1034504</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.7236320397215403</v>
+        <v>0.7236320397215406</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.700312300265365</v>
+        <v>0.7019661357915934</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7430121330947518</v>
+        <v>0.7446663897647414</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>151528</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>128425</v>
+        <v>131548</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>174887</v>
+        <v>178262</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.224042024485502</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1898836871066232</v>
+        <v>0.19450044797347</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2585802455143445</v>
+        <v>0.2635701673871386</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>444</v>
@@ -4811,19 +4811,19 @@
         <v>232408</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>214104</v>
+        <v>210515</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>253375</v>
+        <v>251882</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.3260114512714281</v>
+        <v>0.326011451271428</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3003362742727189</v>
+        <v>0.2953007721534325</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3554237027307247</v>
+        <v>0.3533291019709293</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>621</v>
@@ -4832,19 +4832,19 @@
         <v>383935</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>357012</v>
+        <v>354714</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>416332</v>
+        <v>414034</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2763679602784595</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2569878669052483</v>
+        <v>0.2553336102352586</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2996876997346351</v>
+        <v>0.2980338642084067</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>811792</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>783320</v>
+        <v>782845</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>836889</v>
+        <v>839039</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.7946564558817917</v>
+        <v>0.7946564558817918</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7667849902963221</v>
+        <v>0.766320401469032</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8192228361755255</v>
+        <v>0.8213283238229949</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1011</v>
@@ -4957,19 +4957,19 @@
         <v>758917</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>733319</v>
+        <v>735333</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>781176</v>
+        <v>781635</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.7371243918016771</v>
+        <v>0.737124391801677</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7122621510743152</v>
+        <v>0.7142181976271106</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7587448311429253</v>
+        <v>0.7591903700213759</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1733</v>
@@ -4978,19 +4978,19 @@
         <v>1570709</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1536836</v>
+        <v>1530409</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1608383</v>
+        <v>1601253</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7657782321365538</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7492638892465696</v>
+        <v>0.7461301989673043</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7841456038846643</v>
+        <v>0.7806694706979781</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>209772</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>184675</v>
+        <v>182525</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>238244</v>
+        <v>238719</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2053435441182083</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1807771638244745</v>
+        <v>0.1786716761770047</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2332150097036778</v>
+        <v>0.2336795985309673</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>445</v>
@@ -5028,19 +5028,19 @@
         <v>270647</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>248388</v>
+        <v>247929</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>296245</v>
+        <v>294231</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.262875608198323</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2412551688570748</v>
+        <v>0.240809629978624</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2877378489256847</v>
+        <v>0.2857818023728894</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>671</v>
@@ -5049,19 +5049,19 @@
         <v>480419</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>442745</v>
+        <v>449875</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>514292</v>
+        <v>520719</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.234221767863446</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2158543961153357</v>
+        <v>0.2193305293020218</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2507361107534303</v>
+        <v>0.2538698010326957</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>539227</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>510270</v>
+        <v>512719</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>564713</v>
+        <v>564771</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.727264492383272</v>
+        <v>0.7272644923832718</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6882091342696619</v>
+        <v>0.6915122371010649</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7616369179694926</v>
+        <v>0.7617160408350624</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>674</v>
@@ -5174,19 +5174,19 @@
         <v>535189</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>512559</v>
+        <v>512134</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>560067</v>
+        <v>557914</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.6968784649553702</v>
+        <v>0.6968784649553703</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6674112598112055</v>
+        <v>0.6668579804869114</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7292719807778987</v>
+        <v>0.7264690929854309</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1125</v>
@@ -5195,19 +5195,19 @@
         <v>1074417</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1038007</v>
+        <v>1035863</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1110759</v>
+        <v>1106730</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7118043958992191</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6876830759011352</v>
+        <v>0.6862621256163468</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7358813269450013</v>
+        <v>0.7332119862668139</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>202219</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>176733</v>
+        <v>176675</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>231176</v>
+        <v>228727</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.2727355076167281</v>
+        <v>0.272735507616728</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2383630820305074</v>
+        <v>0.2382839591649378</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.311790865730338</v>
+        <v>0.3084877628989351</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>320</v>
@@ -5245,19 +5245,19 @@
         <v>232792</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>207914</v>
+        <v>210067</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>255422</v>
+        <v>255847</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.3031215350446298</v>
+        <v>0.3031215350446299</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2707280192221012</v>
+        <v>0.2735309070145688</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3325887401887945</v>
+        <v>0.3331420195130884</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>505</v>
@@ -5266,19 +5266,19 @@
         <v>435010</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>398668</v>
+        <v>402697</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>471420</v>
+        <v>473564</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2881956041007809</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2641186730549988</v>
+        <v>0.2667880137331859</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3123169240988648</v>
+        <v>0.3137378743836535</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>712410</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>685370</v>
+        <v>683832</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>741614</v>
+        <v>738844</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.7202329969256861</v>
+        <v>0.7202329969256863</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6928966279676101</v>
+        <v>0.6913410219115962</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7497578712470272</v>
+        <v>0.7469570181961793</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>980</v>
@@ -5391,19 +5391,19 @@
         <v>735948</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>707981</v>
+        <v>705698</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>763836</v>
+        <v>761902</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.6611249667645278</v>
+        <v>0.6611249667645279</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6360007270605216</v>
+        <v>0.6339501883903722</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.686177530539866</v>
+        <v>0.6844399604679743</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1667</v>
@@ -5412,19 +5412,19 @@
         <v>1448358</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1411320</v>
+        <v>1405592</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1491293</v>
+        <v>1489220</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6889352820413288</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6713174145239416</v>
+        <v>0.6685926912387101</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7093579943702584</v>
+        <v>0.7083719434461159</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>276728</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>247524</v>
+        <v>250294</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>303768</v>
+        <v>305306</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.2797670030743139</v>
+        <v>0.2797670030743138</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2502421287529725</v>
+        <v>0.2530429818038207</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3071033720323899</v>
+        <v>0.3086589780884038</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>574</v>
@@ -5462,19 +5462,19 @@
         <v>377228</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>349340</v>
+        <v>351274</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>405195</v>
+        <v>407478</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3388750332354721</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3138224694601339</v>
+        <v>0.3155600395320256</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3639992729394784</v>
+        <v>0.3660498116096276</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>892</v>
@@ -5483,19 +5483,19 @@
         <v>653956</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>611021</v>
+        <v>613094</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>690994</v>
+        <v>696722</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.3110647179586712</v>
+        <v>0.3110647179586711</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2906420056297417</v>
+        <v>0.291628056553884</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3286825854760584</v>
+        <v>0.3314073087612895</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>2588239</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2536293</v>
+        <v>2531189</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2643302</v>
+        <v>2637658</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.7549219773282958</v>
+        <v>0.7549219773282959</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7397707995945242</v>
+        <v>0.7382820511464686</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.770982488003939</v>
+        <v>0.7693361878954454</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3425</v>
@@ -5608,19 +5608,19 @@
         <v>2510528</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2457275</v>
+        <v>2466692</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2557523</v>
+        <v>2562088</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.6928267041543175</v>
+        <v>0.6928267041543174</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6781306238117023</v>
+        <v>0.6807292272499946</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7057957400703344</v>
+        <v>0.7070555518718867</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5824</v>
@@ -5629,19 +5629,19 @@
         <v>5098767</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5030881</v>
+        <v>5029597</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>5174358</v>
+        <v>5171530</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.7230153149317786</v>
+        <v>0.7230153149317788</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7133889146434906</v>
+        <v>0.7132068531150032</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7337342263604703</v>
+        <v>0.7333332626634406</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>840246</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>785183</v>
+        <v>790827</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>892192</v>
+        <v>897296</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2450780226717041</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2290175119960609</v>
+        <v>0.2306638121045545</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2602292004054756</v>
+        <v>0.2617179488535311</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1783</v>
@@ -5679,19 +5679,19 @@
         <v>1113074</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1066079</v>
+        <v>1061514</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1166327</v>
+        <v>1156910</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.3071732958456827</v>
+        <v>0.3071732958456826</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2942042599296658</v>
+        <v>0.2929444481281129</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3218693761882977</v>
+        <v>0.3192707727500052</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2689</v>
@@ -5700,19 +5700,19 @@
         <v>1953320</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1877729</v>
+        <v>1880557</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2021206</v>
+        <v>2022490</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.2769846850682214</v>
+        <v>0.2769846850682213</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2662657736395296</v>
+        <v>0.2666667373365597</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2866110853565091</v>
+        <v>0.2867931468849968</v>
       </c>
     </row>
     <row r="18">
